--- a/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -53,14 +53,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -12,7 +12,9 @@
   <x:definedNames>
     <x:definedName name="PeopleCount" localSheetId="0">'Presentation'!$B$1:$B$1</x:definedName>
     <x:definedName name="relativeRange1" localSheetId="0">Presentation!B1</x:definedName>
+    <x:definedName name="HeadersAndData" localSheetId="1" hidden="1">'Data'!$A$1:$B$4</x:definedName>
     <x:definedName name="PeopleData">'Data'!$A$2:$B$4</x:definedName>
+    <x:definedName name="Headers" hidden="1">'Data'!$A$1:$B$1</x:definedName>
     <x:definedName name="relativeRange2">Presentation!XFD1</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -10,11 +10,11 @@
     <x:sheet name="Data" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="PeopleCount" localSheetId="0">'Presentation'!$B$1:$B$1</x:definedName>
+    <x:definedName name="PeopleCount" localSheetId="0">Presentation!$B$1:$B$1</x:definedName>
     <x:definedName name="relativeRange1" localSheetId="0">Presentation!B1</x:definedName>
-    <x:definedName name="HeadersAndData" localSheetId="1" hidden="1">'Data'!$A$1:$B$4</x:definedName>
-    <x:definedName name="PeopleData">'Data'!$A$2:$B$4</x:definedName>
-    <x:definedName name="Headers" hidden="1">'Data'!$A$1:$B$1</x:definedName>
+    <x:definedName name="HeadersAndData" localSheetId="1" hidden="1">Data!$A$1:$B$4</x:definedName>
+    <x:definedName name="PeopleData">Data!$A$2:$B$4</x:definedName>
+    <x:definedName name="Headers" hidden="1">Data!$A$1:$B$1</x:definedName>
     <x:definedName name="relativeRange2">Presentation!XFD1</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -108,7 +108,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -391,7 +391,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -402,8 +402,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="3.960625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.500625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="2.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -471,8 +471,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.910625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.080625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="5.850625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="4.500625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
